--- a/reference/Problematic Images.xlsx
+++ b/reference/Problematic Images.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
   <si>
     <t>File Name</t>
   </si>
@@ -132,9 +132,6 @@
     <t>cpt1m010-kb70-20141217-0121-e90</t>
   </si>
   <si>
-    <t>cpt1m010-kb70-20141217-0126-e90</t>
-  </si>
-  <si>
     <t>cpt1m010-kb70-20141217-0138-e90</t>
   </si>
   <si>
@@ -142,6 +139,21 @@
   </si>
   <si>
     <t>cpt1m010-kb70-20141217-0141-e90</t>
+  </si>
+  <si>
+    <t>Unusable high distortion, lens cap on</t>
+  </si>
+  <si>
+    <t>cpt1m010-kb70-20141217-0092-e90</t>
+  </si>
+  <si>
+    <t>Very faint observation</t>
+  </si>
+  <si>
+    <t>cpt1m010-kb70-20141217-0148-e90</t>
+  </si>
+  <si>
+    <t>cpt1m010-kb70-20141218-0126-e90</t>
   </si>
 </sst>
 </file>
@@ -187,8 +199,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -255,7 +301,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="97">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -287,6 +333,23 @@
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -318,6 +381,23 @@
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -647,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -909,7 +989,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -920,7 +1000,7 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -947,35 +1027,57 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
         <v>38</v>
-      </c>
-      <c r="B28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
